--- a/analisis/metologias/comparacion_estimaciones_renta_hidrocarburifera.xlsx
+++ b/analisis/metologias/comparacion_estimaciones_renta_hidrocarburifera.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Archivos\Datos\Hidrocarburos\Estimacion calculo renta otros\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Archivos\repos\pioYPFConicet\analisis\metologias\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23C37F5B-0E9A-4415-BA51-F01976172892}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B01FE03-0C6D-45E9-8A02-7366A514403F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="28110" windowHeight="16440" activeTab="1" xr2:uid="{A5002639-9EB3-4F56-8D1E-2FB527A288BA}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{A5002639-9EB3-4F56-8D1E-2FB527A288BA}"/>
   </bookViews>
   <sheets>
     <sheet name="Comparacion estimaciones" sheetId="1" r:id="rId1"/>
@@ -527,26 +527,31 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -863,582 +868,583 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E47F69D-0C17-4BB1-AFE7-A8F9D60D3C0C}">
   <dimension ref="A2:F35"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="D35" sqref="D35"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C33" sqref="A33:C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.5703125" customWidth="1"/>
-    <col min="2" max="2" width="10.5703125" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" customWidth="1"/>
-    <col min="4" max="4" width="78.140625" style="4" customWidth="1"/>
-    <col min="5" max="5" width="51.42578125" style="4" customWidth="1"/>
+    <col min="1" max="1" width="12.5703125" style="7" customWidth="1"/>
+    <col min="2" max="2" width="10.5703125" style="7" customWidth="1"/>
+    <col min="3" max="3" width="54.7109375" style="7" customWidth="1"/>
+    <col min="4" max="4" width="78.140625" style="8" customWidth="1"/>
+    <col min="5" max="5" width="51.42578125" style="8" customWidth="1"/>
+    <col min="6" max="6" width="11.42578125" style="7"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:6" s="1" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="7" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="A3" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="7" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="A4" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="7" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5" t="s">
+      <c r="A5" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="7" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6" t="s">
+      <c r="A6" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" s="7" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" t="s">
+      <c r="A7" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" s="7" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>0</v>
-      </c>
-      <c r="B8" t="s">
+      <c r="A8" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E8" s="7" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B9" t="s">
+      <c r="A9" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D9" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E9" s="7" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B10" t="s">
+      <c r="A10" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="D10" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E10" s="7" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>0</v>
-      </c>
-      <c r="B11" t="s">
+      <c r="A11" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="D11" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E11" s="7" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>0</v>
-      </c>
-      <c r="B12" t="s">
+      <c r="A12" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B12" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="D12" s="8" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="A13" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D13" s="4" t="s">
+      <c r="D13" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="E13" s="4" t="s">
+      <c r="E13" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="F13" t="s">
+      <c r="F13" s="7" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+      <c r="A14" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D14" s="4" t="s">
+      <c r="D14" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="E14" t="s">
+      <c r="E14" s="7" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+      <c r="A15" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="D15" s="4" t="s">
+      <c r="D15" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="E15" t="s">
+      <c r="E15" s="7" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+      <c r="A16" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D16" s="4" t="s">
+      <c r="D16" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="E16" t="s">
+      <c r="E16" s="7" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+      <c r="A17" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C17" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D17" s="4" t="s">
+      <c r="D17" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="E17" t="s">
+      <c r="E17" s="7" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+      <c r="A18" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="4" t="s">
+      <c r="D18" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="E18" t="s">
+      <c r="E18" s="7" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+      <c r="A19" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C19" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D19" s="4" t="s">
+      <c r="D19" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="E19" t="s">
+      <c r="E19" s="7" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+      <c r="A20" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C20" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D20" s="4" t="s">
+      <c r="D20" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="E20" s="4" t="s">
+      <c r="E20" s="8" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+      <c r="A21" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C21" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D21" s="4" t="s">
+      <c r="D21" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="E21" t="s">
+      <c r="E21" s="7" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+      <c r="A22" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C22" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D22" s="4" t="s">
+      <c r="D22" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="E22" t="s">
+      <c r="E22" s="7" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+      <c r="A23" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C23" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D23" s="4" t="s">
+      <c r="D23" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="E23" t="s">
+      <c r="E23" s="7" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+      <c r="A24" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C24" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D24" s="4" t="s">
+      <c r="D24" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="E24" s="4" t="s">
+      <c r="E24" s="8" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+      <c r="A25" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C25" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D25" s="4" t="s">
+      <c r="D25" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="E25" t="s">
+      <c r="E25" s="7" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+      <c r="A26" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C26" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D26" s="4" t="s">
+      <c r="D26" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="E26" t="s">
+      <c r="E26" s="7" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+      <c r="A27" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C27" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D27" s="4" t="s">
+      <c r="D27" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="E27" t="s">
+      <c r="E27" s="7" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
+      <c r="A28" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B28" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C28" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D28" s="4" t="s">
+      <c r="D28" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="E28" t="s">
+      <c r="E28" s="7" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
+      <c r="A29" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B29" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C29" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D29" s="4" t="s">
+      <c r="D29" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="E29" t="s">
+      <c r="E29" s="7" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
+      <c r="A30" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B30" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C30" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D30" s="4" t="s">
+      <c r="D30" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="E30" s="4" t="s">
+      <c r="E30" s="8" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
+      <c r="A31" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B31" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C31" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D31" s="4" t="s">
+      <c r="D31" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="E31" t="s">
+      <c r="E31" s="7" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
+      <c r="A32" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B32" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C32" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D32" s="4" t="s">
+      <c r="D32" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="E32" s="4" t="s">
+      <c r="E32" s="8" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
+      <c r="A33" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B33" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="C33" s="4" t="s">
+      <c r="C33" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="D33" s="4" t="s">
+      <c r="D33" s="8" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
+      <c r="A34" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="C34" t="s">
+      <c r="C34" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D34" s="4" t="s">
+      <c r="D34" s="8" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="6" t="s">
+      <c r="A35" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="C35" t="s">
+      <c r="C35" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="D35" s="4" t="s">
+      <c r="D35" s="8" t="s">
         <v>80</v>
       </c>
     </row>
@@ -1454,7 +1460,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46578C92-76E4-4EBB-ABD4-A406B03A2DD4}">
   <dimension ref="A2:D41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
@@ -1467,16 +1473,16 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="3" t="s">
         <v>87</v>
       </c>
     </row>
@@ -1518,7 +1524,7 @@
       <c r="C5" t="s">
         <v>113</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="D5" s="4" t="s">
         <v>141</v>
       </c>
     </row>
@@ -1546,7 +1552,7 @@
       <c r="C7" t="s">
         <v>146</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="D7" s="4" t="s">
         <v>141</v>
       </c>
     </row>
@@ -1560,7 +1566,7 @@
       <c r="C8" t="s">
         <v>91</v>
       </c>
-      <c r="D8" s="8" t="s">
+      <c r="D8" s="4" t="s">
         <v>141</v>
       </c>
     </row>
@@ -1588,7 +1594,7 @@
       <c r="C10" t="s">
         <v>32</v>
       </c>
-      <c r="D10" s="8" t="s">
+      <c r="D10" s="4" t="s">
         <v>141</v>
       </c>
     </row>
@@ -1602,7 +1608,7 @@
       <c r="C11" t="s">
         <v>32</v>
       </c>
-      <c r="D11" s="8" t="s">
+      <c r="D11" s="4" t="s">
         <v>141</v>
       </c>
     </row>
@@ -1756,7 +1762,7 @@
       <c r="C22" t="s">
         <v>131</v>
       </c>
-      <c r="D22" s="8" t="s">
+      <c r="D22" s="4" t="s">
         <v>141</v>
       </c>
     </row>
@@ -1770,7 +1776,7 @@
       <c r="C23" t="s">
         <v>91</v>
       </c>
-      <c r="D23" s="8" t="s">
+      <c r="D23" s="4" t="s">
         <v>141</v>
       </c>
     </row>
@@ -1784,7 +1790,7 @@
       <c r="C24" t="s">
         <v>96</v>
       </c>
-      <c r="D24" s="8" t="s">
+      <c r="D24" s="4" t="s">
         <v>141</v>
       </c>
     </row>
@@ -1798,7 +1804,7 @@
       <c r="C25" t="s">
         <v>108</v>
       </c>
-      <c r="D25" s="8" t="s">
+      <c r="D25" s="4" t="s">
         <v>141</v>
       </c>
     </row>
@@ -1966,7 +1972,7 @@
       <c r="C37" t="s">
         <v>145</v>
       </c>
-      <c r="D37" s="8" t="s">
+      <c r="D37" s="4" t="s">
         <v>141</v>
       </c>
     </row>
@@ -1994,7 +2000,7 @@
       <c r="C39" t="s">
         <v>121</v>
       </c>
-      <c r="D39" s="8" t="s">
+      <c r="D39" s="4" t="s">
         <v>141</v>
       </c>
     </row>
@@ -2008,7 +2014,7 @@
       <c r="C40" t="s">
         <v>91</v>
       </c>
-      <c r="D40" s="8" t="s">
+      <c r="D40" s="4" t="s">
         <v>141</v>
       </c>
     </row>
@@ -2022,7 +2028,7 @@
       <c r="C41" t="s">
         <v>91</v>
       </c>
-      <c r="D41" s="8" t="s">
+      <c r="D41" s="4" t="s">
         <v>141</v>
       </c>
     </row>
@@ -2050,44 +2056,44 @@
     <col min="3" max="13" width="12.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="5" customFormat="1" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:13" s="2" customFormat="1" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="I1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="J1" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="K1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="L1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="M1" s="2" t="s">
         <v>24</v>
       </c>
     </row>

--- a/analisis/metologias/comparacion_estimaciones_renta_hidrocarburifera.xlsx
+++ b/analisis/metologias/comparacion_estimaciones_renta_hidrocarburifera.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Archivos\repos\pioYPFConicet\analisis\metologias\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B01FE03-0C6D-45E9-8A02-7366A514403F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E561D608-FCBA-4A49-8793-6E5F2BDF9005}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{A5002639-9EB3-4F56-8D1E-2FB527A288BA}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19800" windowHeight="11760" xr2:uid="{A5002639-9EB3-4F56-8D1E-2FB527A288BA}"/>
   </bookViews>
   <sheets>
     <sheet name="Comparacion estimaciones" sheetId="1" r:id="rId1"/>
@@ -267,9 +267,6 @@
     <t>(Producción - Exportaciones) * (Precio internacional * TCP - Precio venta interno * TCC)</t>
   </si>
   <si>
-    <t>(P * Q ) - CI - W - Gcia normal</t>
-  </si>
-  <si>
     <t>Gcia normal</t>
   </si>
   <si>
@@ -472,6 +469,9 @@
   </si>
   <si>
     <t>UNCTAD / Informes de empresas</t>
+  </si>
+  <si>
+    <t>(P * Q * TCP ) - CI_ccnn - W_ccnn - Gcia normal</t>
   </si>
 </sst>
 </file>
@@ -868,8 +868,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E47F69D-0C17-4BB1-AFE7-A8F9D60D3C0C}">
   <dimension ref="A2:F35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C33" sqref="A33:C35"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -899,7 +899,7 @@
         <v>68</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1080,13 +1080,13 @@
         <v>24</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E13" s="8" t="s">
         <v>27</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1100,7 +1100,7 @@
         <v>18</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>30</v>
@@ -1117,7 +1117,7 @@
         <v>31</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>32</v>
@@ -1134,7 +1134,7 @@
         <v>16</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>32</v>
@@ -1219,7 +1219,7 @@
         <v>13</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>1</v>
@@ -1434,7 +1434,7 @@
         <v>24</v>
       </c>
       <c r="D34" s="8" t="s">
-        <v>78</v>
+        <v>146</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
@@ -1442,10 +1442,10 @@
         <v>74</v>
       </c>
       <c r="C35" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="D35" s="8" t="s">
         <v>79</v>
-      </c>
-      <c r="D35" s="8" t="s">
-        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -1460,8 +1460,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46578C92-76E4-4EBB-ABD4-A406B03A2DD4}">
   <dimension ref="A2:D41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1477,13 +1477,13 @@
         <v>64</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>68</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -1491,13 +1491,13 @@
         <v>57</v>
       </c>
       <c r="B3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C3" t="s">
+        <v>138</v>
+      </c>
+      <c r="D3" t="s">
         <v>139</v>
-      </c>
-      <c r="D3" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -1505,13 +1505,13 @@
         <v>44</v>
       </c>
       <c r="B4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -1519,13 +1519,13 @@
         <v>0</v>
       </c>
       <c r="B5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -1533,27 +1533,27 @@
         <v>37</v>
       </c>
       <c r="B6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C7" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -1561,13 +1561,13 @@
         <v>0</v>
       </c>
       <c r="B8" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -1575,13 +1575,13 @@
         <v>0</v>
       </c>
       <c r="B9" t="s">
+        <v>131</v>
+      </c>
+      <c r="C9" t="s">
         <v>132</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>133</v>
-      </c>
-      <c r="D9" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -1589,27 +1589,27 @@
         <v>37</v>
       </c>
       <c r="B10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C10" t="s">
         <v>32</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C11" t="s">
         <v>32</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -1617,13 +1617,13 @@
         <v>0</v>
       </c>
       <c r="B12" t="s">
+        <v>113</v>
+      </c>
+      <c r="C12" t="s">
         <v>114</v>
       </c>
-      <c r="C12" t="s">
-        <v>115</v>
-      </c>
       <c r="D12" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -1631,13 +1631,13 @@
         <v>0</v>
       </c>
       <c r="B13" t="s">
+        <v>125</v>
+      </c>
+      <c r="C13" t="s">
         <v>126</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D13" t="s">
         <v>127</v>
-      </c>
-      <c r="D13" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -1645,27 +1645,27 @@
         <v>0</v>
       </c>
       <c r="B14" t="s">
+        <v>115</v>
+      </c>
+      <c r="C14" t="s">
+        <v>90</v>
+      </c>
+      <c r="D14" t="s">
         <v>116</v>
-      </c>
-      <c r="C14" t="s">
-        <v>91</v>
-      </c>
-      <c r="D14" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B15" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C15" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D15" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -1673,13 +1673,13 @@
         <v>0</v>
       </c>
       <c r="B16" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C16" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D16" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -1687,13 +1687,13 @@
         <v>57</v>
       </c>
       <c r="B17" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C17" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D17" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -1701,27 +1701,27 @@
         <v>37</v>
       </c>
       <c r="B18" t="s">
+        <v>84</v>
+      </c>
+      <c r="C18" t="s">
+        <v>94</v>
+      </c>
+      <c r="D18" t="s">
         <v>85</v>
-      </c>
-      <c r="C18" t="s">
-        <v>95</v>
-      </c>
-      <c r="D18" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
+        <v>93</v>
+      </c>
+      <c r="B19" t="s">
+        <v>84</v>
+      </c>
+      <c r="C19" t="s">
         <v>94</v>
       </c>
-      <c r="B19" t="s">
+      <c r="D19" t="s">
         <v>85</v>
-      </c>
-      <c r="C19" t="s">
-        <v>95</v>
-      </c>
-      <c r="D19" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -1729,13 +1729,13 @@
         <v>44</v>
       </c>
       <c r="B20" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C20" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D20" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -1743,13 +1743,13 @@
         <v>0</v>
       </c>
       <c r="B21" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C21" t="s">
+        <v>121</v>
+      </c>
+      <c r="D21" t="s">
         <v>122</v>
-      </c>
-      <c r="D21" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -1757,13 +1757,13 @@
         <v>0</v>
       </c>
       <c r="B22" t="s">
+        <v>129</v>
+      </c>
+      <c r="C22" t="s">
         <v>130</v>
       </c>
-      <c r="C22" t="s">
-        <v>131</v>
-      </c>
       <c r="D22" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -1771,13 +1771,13 @@
         <v>0</v>
       </c>
       <c r="B23" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C23" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -1785,13 +1785,13 @@
         <v>37</v>
       </c>
       <c r="B24" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C24" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -1799,13 +1799,13 @@
         <v>44</v>
       </c>
       <c r="B25" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C25" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -1813,13 +1813,13 @@
         <v>0</v>
       </c>
       <c r="B26" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C26" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D26" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -1827,13 +1827,13 @@
         <v>0</v>
       </c>
       <c r="B27" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C27" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D27" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -1841,27 +1841,27 @@
         <v>37</v>
       </c>
       <c r="B28" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C28" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D28" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B29" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C29" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D29" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
@@ -1869,13 +1869,13 @@
         <v>44</v>
       </c>
       <c r="B30" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C30" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D30" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
@@ -1883,13 +1883,13 @@
         <v>0</v>
       </c>
       <c r="B31" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C31" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D31" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
@@ -1897,27 +1897,27 @@
         <v>37</v>
       </c>
       <c r="B32" t="s">
+        <v>89</v>
+      </c>
+      <c r="C32" t="s">
         <v>90</v>
       </c>
-      <c r="C32" t="s">
-        <v>91</v>
-      </c>
       <c r="D32" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B33" t="s">
+        <v>89</v>
+      </c>
+      <c r="C33" t="s">
         <v>90</v>
       </c>
-      <c r="C33" t="s">
-        <v>91</v>
-      </c>
       <c r="D33" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
@@ -1925,27 +1925,27 @@
         <v>0</v>
       </c>
       <c r="B34" t="s">
+        <v>89</v>
+      </c>
+      <c r="C34" t="s">
         <v>90</v>
       </c>
-      <c r="C34" t="s">
-        <v>91</v>
-      </c>
       <c r="D34" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B35" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C35" t="s">
         <v>32</v>
       </c>
       <c r="D35" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
@@ -1953,13 +1953,13 @@
         <v>37</v>
       </c>
       <c r="B36" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C36" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D36" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
@@ -1967,13 +1967,13 @@
         <v>57</v>
       </c>
       <c r="B37" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C37" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
@@ -1981,13 +1981,13 @@
         <v>0</v>
       </c>
       <c r="B38" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C38" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D38" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
@@ -1995,27 +1995,27 @@
         <v>0</v>
       </c>
       <c r="B39" t="s">
+        <v>119</v>
+      </c>
+      <c r="C39" t="s">
         <v>120</v>
       </c>
-      <c r="C39" t="s">
-        <v>121</v>
-      </c>
       <c r="D39" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B40" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C40" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
@@ -2023,13 +2023,13 @@
         <v>57</v>
       </c>
       <c r="B41" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C41" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
   </sheetData>
@@ -2048,12 +2048,15 @@
   <dimension ref="A1:M6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="13" width="12.28515625" customWidth="1"/>
+    <col min="3" max="10" width="12.28515625" customWidth="1"/>
+    <col min="11" max="11" width="19.85546875" customWidth="1"/>
+    <col min="12" max="12" width="38.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="64.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="2" customFormat="1" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
